--- a/data/VMD.xlsx
+++ b/data/VMD.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>26/11/2025</t>
+    <t>17/12/2025</t>
   </si>
   <si>
     <t>VMD</t>
@@ -19151,7 +19151,7 @@
         <v>-1.748924128E9</v>
       </c>
       <c r="I19" s="17" t="n">
-        <v>-3.702996571E10</v>
+        <v>-3.702996571E9</v>
       </c>
       <c r="K19" s="17" t="n">
         <v>-1.9577734649E10</v>
@@ -19247,7 +19247,7 @@
         <v>-1.046679721E9</v>
       </c>
       <c r="AP19" s="17" t="n">
-        <v>-3.3701344479E10</v>
+        <v>-3.7437534E8</v>
       </c>
       <c r="AQ19" s="17" t="n">
         <v>-1.4903654E7</v>
@@ -27550,7 +27550,7 @@
         <v>7.4415512E7</v>
       </c>
       <c r="I13" s="25" t="n">
-        <v>0.0</v>
+        <v>306441.0</v>
       </c>
       <c r="K13" s="25" t="n">
         <v>1.707699172E9</v>
@@ -27637,7 +27637,7 @@
         <v>0.0</v>
       </c>
       <c r="AM13" s="25" t="n">
-        <v>0.0</v>
+        <v>306441.0</v>
       </c>
       <c r="AN13" s="25" t="n">
         <v>0.0</v>
@@ -27672,7 +27672,7 @@
         <v>5.3031758161E10</v>
       </c>
       <c r="I14" s="25" t="n">
-        <v>1.16921593123E11</v>
+        <v>1.16921286682E11</v>
       </c>
       <c r="K14" s="25" t="n">
         <v>4.968521453E10</v>
@@ -27759,7 +27759,7 @@
         <v>6.9248736575E10</v>
       </c>
       <c r="AM14" s="25" t="n">
-        <v>1.16921593123E11</v>
+        <v>1.16921286682E11</v>
       </c>
       <c r="AN14" s="25" t="n">
         <v>7.5551946155E10</v>
@@ -28892,7 +28892,7 @@
         <v>4.08365617834E11</v>
       </c>
       <c r="I24" s="25" t="n">
-        <v>3.99275405076E11</v>
+        <v>2.06275405076E11</v>
       </c>
       <c r="K24" s="25" t="n">
         <v>9.2775376652E10</v>
@@ -28979,7 +28979,7 @@
         <v>4.16166417089E11</v>
       </c>
       <c r="AM24" s="25" t="n">
-        <v>3.99275405076E11</v>
+        <v>2.06275405076E11</v>
       </c>
       <c r="AN24" s="25" t="n">
         <v>1.84800507708E11</v>
@@ -29380,7 +29380,7 @@
         <v>4.08365617834E11</v>
       </c>
       <c r="I28" s="25" t="n">
-        <v>3.99275405076E11</v>
+        <v>2.06275405076E11</v>
       </c>
       <c r="K28" s="25" t="n">
         <v>9.2775376652E10</v>
@@ -29467,7 +29467,7 @@
         <v>4.16166417089E11</v>
       </c>
       <c r="AM28" s="25" t="n">
-        <v>3.99275405076E11</v>
+        <v>2.06275405076E11</v>
       </c>
       <c r="AN28" s="25" t="n">
         <v>1.84800507708E11</v>
@@ -31942,7 +31942,7 @@
         <v>2.00987444854E11</v>
       </c>
       <c r="I49" s="25" t="n">
-        <v>2.01014295674E11</v>
+        <v>2.0203240335E11</v>
       </c>
       <c r="K49" s="25" t="n">
         <v>7.4907185045E10</v>
@@ -32029,7 +32029,7 @@
         <v>0.0</v>
       </c>
       <c r="AM49" s="25" t="n">
-        <v>2.01014295674E11</v>
+        <v>2.0203240335E11</v>
       </c>
       <c r="AN49" s="25" t="n">
         <v>2.0212431135E11</v>
@@ -32064,7 +32064,7 @@
         <v>1.89504575518E11</v>
       </c>
       <c r="I50" s="25" t="n">
-        <v>1.99969337178E11</v>
+        <v>2.00987444854E11</v>
       </c>
       <c r="K50" s="25" t="n">
         <v>7.4385366863E10</v>
@@ -32151,7 +32151,7 @@
         <v>0.0</v>
       </c>
       <c r="AM50" s="25" t="n">
-        <v>1.99969337178E11</v>
+        <v>2.00987444854E11</v>
       </c>
       <c r="AN50" s="25" t="n">
         <v>2.0203240335E11</v>
@@ -32430,7 +32430,7 @@
         <v>1.13453998512E11</v>
       </c>
       <c r="I53" s="25" t="n">
-        <v>1.24138009119E11</v>
+        <v>1.25156116795E11</v>
       </c>
       <c r="K53" s="25" t="n">
         <v>3.4932214487E10</v>
@@ -32517,7 +32517,7 @@
         <v>0.0</v>
       </c>
       <c r="AM53" s="25" t="n">
-        <v>1.24138009119E11</v>
+        <v>1.25156116795E11</v>
       </c>
       <c r="AN53" s="25" t="n">
         <v>1.27986685711E11</v>
@@ -32552,7 +32552,7 @@
         <v>9.8189632376E10</v>
       </c>
       <c r="I54" s="25" t="n">
-        <v>1.12435890837E11</v>
+        <v>1.13453998512E11</v>
       </c>
       <c r="K54" s="25" t="n">
         <v>3.3501001278E10</v>
@@ -32639,7 +32639,7 @@
         <v>0.0</v>
       </c>
       <c r="AM54" s="25" t="n">
-        <v>1.12435890837E11</v>
+        <v>1.13453998512E11</v>
       </c>
       <c r="AN54" s="25" t="n">
         <v>1.25156116795E11</v>
@@ -32674,7 +32674,7 @@
         <v>1.5385881227E10</v>
       </c>
       <c r="I55" s="25" t="n">
-        <v>1.1702118282E10</v>
+        <v>1.1702118283E10</v>
       </c>
       <c r="K55" s="25" t="n">
         <v>1.431213209E9</v>
@@ -32761,7 +32761,7 @@
         <v>0.0</v>
       </c>
       <c r="AM55" s="25" t="n">
-        <v>1.1702118282E10</v>
+        <v>1.1702118283E10</v>
       </c>
       <c r="AN55" s="25" t="n">
         <v>2.830568916E9</v>
@@ -33894,7 +33894,7 @@
         <v>2.6282906685E10</v>
       </c>
       <c r="I65" s="25" t="n">
-        <v>4.5529634957E10</v>
+        <v>4.5801634957E10</v>
       </c>
       <c r="K65" s="25" t="n">
         <v>2.3605087839E10</v>
@@ -33981,7 +33981,7 @@
         <v>0.0</v>
       </c>
       <c r="AM65" s="25" t="n">
-        <v>4.5529634957E10</v>
+        <v>4.5801634957E10</v>
       </c>
       <c r="AN65" s="25" t="n">
         <v>4.5801634957E10</v>
@@ -34016,7 +34016,7 @@
         <v>2.6059122845E10</v>
       </c>
       <c r="I66" s="25" t="n">
-        <v>2.6010906685E10</v>
+        <v>2.6282906685E10</v>
       </c>
       <c r="K66" s="25" t="n">
         <v>2.3513087839E10</v>
@@ -34103,7 +34103,7 @@
         <v>0.0</v>
       </c>
       <c r="AM66" s="25" t="n">
-        <v>2.6010906685E10</v>
+        <v>2.6282906685E10</v>
       </c>
       <c r="AN66" s="25" t="n">
         <v>4.5801634957E10</v>
@@ -34382,7 +34382,7 @@
         <v>8.9700629E9</v>
       </c>
       <c r="I69" s="25" t="n">
-        <v>1.3702188658E10</v>
+        <v>1.3974188658E10</v>
       </c>
       <c r="K69" s="25" t="n">
         <v>3.409725098E9</v>
@@ -34469,7 +34469,7 @@
         <v>0.0</v>
       </c>
       <c r="AM69" s="25" t="n">
-        <v>1.3702188658E10</v>
+        <v>1.3974188658E10</v>
       </c>
       <c r="AN69" s="25" t="n">
         <v>1.5330387377E10</v>
@@ -34504,7 +34504,7 @@
         <v>7.890967475E9</v>
       </c>
       <c r="I70" s="25" t="n">
-        <v>8.6980629E9</v>
+        <v>8.9700629E9</v>
       </c>
       <c r="K70" s="25" t="n">
         <v>3.216192335E9</v>
@@ -34591,7 +34591,7 @@
         <v>0.0</v>
       </c>
       <c r="AM70" s="25" t="n">
-        <v>8.6980629E9</v>
+        <v>8.9700629E9</v>
       </c>
       <c r="AN70" s="25" t="n">
         <v>1.3702188658E10</v>
@@ -36944,7 +36944,7 @@
         <v>4.649062191E9</v>
       </c>
       <c r="I90" s="25" t="n">
-        <v>5.851642415E9</v>
+        <v>5.93079346E9</v>
       </c>
       <c r="K90" s="25" t="n">
         <v>5.67074165E9</v>
@@ -37031,7 +37031,7 @@
         <v>3.297769441E9</v>
       </c>
       <c r="AM90" s="25" t="n">
-        <v>5.851642415E9</v>
+        <v>5.93079346E9</v>
       </c>
       <c r="AN90" s="25" t="n">
         <v>2.760100392E9</v>
@@ -37432,7 +37432,7 @@
         <v>4.150330879E9</v>
       </c>
       <c r="I94" s="25" t="n">
-        <v>4.811330622E9</v>
+        <v>4.883412749E9</v>
       </c>
       <c r="K94" s="25" t="n">
         <v>3.21265045E9</v>
@@ -37519,7 +37519,7 @@
         <v>2.974527666E9</v>
       </c>
       <c r="AM94" s="25" t="n">
-        <v>4.811330622E9</v>
+        <v>4.883412749E9</v>
       </c>
       <c r="AN94" s="25" t="n">
         <v>2.361021291E9</v>
@@ -37920,7 +37920,7 @@
         <v>1.2068918E7</v>
       </c>
       <c r="I98" s="25" t="n">
-        <v>3383147.0</v>
+        <v>1.0452065E7</v>
       </c>
       <c r="K98" s="25" t="n">
         <v>1.858797475E9</v>
@@ -38007,7 +38007,7 @@
         <v>0.0</v>
       </c>
       <c r="AM98" s="25" t="n">
-        <v>3383147.0</v>
+        <v>1.0452065E7</v>
       </c>
       <c r="AN98" s="25" t="n">
         <v>2000000.0</v>
@@ -38774,7 +38774,7 @@
         <v>3.20681822125E11</v>
       </c>
       <c r="I105" s="25" t="n">
-        <v>3.31586929999E11</v>
+        <v>1.38444199973E11</v>
       </c>
       <c r="K105" s="25" t="n">
         <v>3.26435558566E11</v>
@@ -38861,7 +38861,7 @@
         <v>3.23996882084E11</v>
       </c>
       <c r="AM105" s="25" t="n">
-        <v>3.31586929999E11</v>
+        <v>1.38444199973E11</v>
       </c>
       <c r="AN105" s="25" t="n">
         <v>1.33660286316E11</v>
@@ -39628,7 +39628,7 @@
         <v>5.91685764E9</v>
       </c>
       <c r="I112" s="25" t="n">
-        <v>0.0</v>
+        <v>5.91685764E9</v>
       </c>
       <c r="K112" s="25" t="n">
         <v>0.0</v>
@@ -39715,7 +39715,7 @@
         <v>0.0</v>
       </c>
       <c r="AM112" s="25" t="n">
-        <v>0.0</v>
+        <v>5.91685764E9</v>
       </c>
       <c r="AN112" s="25" t="n">
         <v>0.0</v>
@@ -39872,7 +39872,7 @@
         <v>3.04708194419E11</v>
       </c>
       <c r="I114" s="25" t="n">
-        <v>3.21251974685E11</v>
+        <v>1.22192387019E11</v>
       </c>
       <c r="K114" s="25" t="n">
         <v>3.26003199438E11</v>
@@ -39959,7 +39959,7 @@
         <v>3.13702334294E11</v>
       </c>
       <c r="AM114" s="25" t="n">
-        <v>3.21251974685E11</v>
+        <v>1.22192387019E11</v>
       </c>
       <c r="AN114" s="25" t="n">
         <v>1.23262915678E11</v>
@@ -41092,7 +41092,7 @@
         <v>3.552262700338E12</v>
       </c>
       <c r="I124" s="25" t="n">
-        <v>1.254598487951E12</v>
+        <v>1.254970662246E12</v>
       </c>
       <c r="K124" s="25" t="n">
         <v>2.999662965109E12</v>
@@ -41179,7 +41179,7 @@
         <v>2.37761173114E11</v>
       </c>
       <c r="AM124" s="25" t="n">
-        <v>4.02942360165E11</v>
+        <v>4.0331453446E11</v>
       </c>
       <c r="AN124" s="25" t="n">
         <v>2.43175209735E11</v>
@@ -41214,7 +41214,7 @@
         <v>3.294601259772E12</v>
       </c>
       <c r="I125" s="25" t="n">
-        <v>1.123767390806E12</v>
+        <v>1.1146201539E12</v>
       </c>
       <c r="K125" s="25" t="n">
         <v>2.999662965109E12</v>
@@ -41301,7 +41301,7 @@
         <v>2.08633654779E11</v>
       </c>
       <c r="AM125" s="25" t="n">
-        <v>3.79361172736E11</v>
+        <v>3.7021393583E11</v>
       </c>
       <c r="AN125" s="25" t="n">
         <v>2.20860371069E11</v>
@@ -41336,7 +41336,7 @@
         <v>2.57661440566E11</v>
       </c>
       <c r="I126" s="25" t="n">
-        <v>1.30831097145E11</v>
+        <v>1.40350508346E11</v>
       </c>
       <c r="K126" s="25" t="n">
         <v>0.0</v>
@@ -41423,7 +41423,7 @@
         <v>2.9127518335E10</v>
       </c>
       <c r="AM126" s="25" t="n">
-        <v>2.3581187429E10</v>
+        <v>3.310059863E10</v>
       </c>
       <c r="AN126" s="25" t="n">
         <v>2.2314838666E10</v>
@@ -41702,7 +41702,7 @@
         <v>1.484599912E9</v>
       </c>
       <c r="I129" s="25" t="n">
-        <v>0.0</v>
+        <v>1.28858152E8</v>
       </c>
       <c r="K129" s="25" t="n">
         <v>0.0</v>
@@ -41789,7 +41789,7 @@
         <v>0.0</v>
       </c>
       <c r="AM129" s="25" t="n">
-        <v>0.0</v>
+        <v>1.28858152E8</v>
       </c>
       <c r="AN129" s="25" t="n">
         <v>0.0</v>
@@ -41824,7 +41824,7 @@
         <v>0.0</v>
       </c>
       <c r="I130" s="25" t="n">
-        <v>0.0</v>
+        <v>3.080366863E9</v>
       </c>
       <c r="K130" s="25" t="n">
         <v>0.0</v>
@@ -41911,7 +41911,7 @@
         <v>0.0</v>
       </c>
       <c r="AM130" s="25" t="n">
-        <v>0.0</v>
+        <v>3.080366863E9</v>
       </c>
       <c r="AN130" s="25" t="n">
         <v>0.0</v>
@@ -41946,7 +41946,7 @@
         <v>6.798493972E9</v>
       </c>
       <c r="I131" s="25" t="n">
-        <v>5.102561639E9</v>
+        <v>1.893336624E9</v>
       </c>
       <c r="K131" s="25" t="n">
         <v>1.5598975708E10</v>
@@ -42033,7 +42033,7 @@
         <v>6.2336586E7</v>
       </c>
       <c r="AM131" s="25" t="n">
-        <v>4.417595875E9</v>
+        <v>1.20837086E9</v>
       </c>
       <c r="AN131" s="25" t="n">
         <v>1.901362381E9</v>
@@ -42434,7 +42434,7 @@
         <v>3.255769423086E12</v>
       </c>
       <c r="I135" s="25" t="n">
-        <v>1.130997181842E12</v>
+        <v>1.130923750878E12</v>
       </c>
       <c r="K135" s="25" t="n">
         <v>2.756161808896E12</v>
@@ -42521,7 +42521,7 @@
         <v>2.1245878944E11</v>
       </c>
       <c r="AM135" s="25" t="n">
-        <v>3.62060834143E11</v>
+        <v>3.61987403179E11</v>
       </c>
       <c r="AN135" s="25" t="n">
         <v>2.16481754626E11</v>
@@ -42556,7 +42556,7 @@
         <v>3.113193334988E12</v>
       </c>
       <c r="I136" s="25" t="n">
-        <v>1.047190276609E12</v>
+        <v>1.034695763664E12</v>
       </c>
       <c r="K136" s="25" t="n">
         <v>2.756161808896E12</v>
@@ -42643,7 +42643,7 @@
         <v>1.91178212248E11</v>
       </c>
       <c r="AM136" s="25" t="n">
-        <v>3.49624154642E11</v>
+        <v>3.37129641697E11</v>
       </c>
       <c r="AN136" s="25" t="n">
         <v>2.04083084063E11</v>
@@ -42800,7 +42800,7 @@
         <v>1.42576088098E11</v>
       </c>
       <c r="I138" s="25" t="n">
-        <v>3.2619986221E10</v>
+        <v>4.2507317047E10</v>
       </c>
       <c r="K138" s="25" t="n">
         <v>0.0</v>
@@ -42887,7 +42887,7 @@
         <v>8.64692207E9</v>
       </c>
       <c r="AM138" s="25" t="n">
-        <v>0.0</v>
+        <v>9.887330826E9</v>
       </c>
       <c r="AN138" s="25" t="n">
         <v>0.0</v>
@@ -43410,7 +43410,7 @@
         <v>0.0</v>
       </c>
       <c r="I143" s="25" t="n">
-        <v>0.0</v>
+        <v>2.533751155E9</v>
       </c>
       <c r="K143" s="25" t="n">
         <v>0.0</v>
@@ -43497,7 +43497,7 @@
         <v>0.0</v>
       </c>
       <c r="AM143" s="25" t="n">
-        <v>0.0</v>
+        <v>2.533751155E9</v>
       </c>
       <c r="AN143" s="25" t="n">
         <v>0.0</v>
@@ -43654,7 +43654,7 @@
         <v>1.01421345E10</v>
       </c>
       <c r="I145" s="25" t="n">
-        <v>6.599400929E9</v>
+        <v>6.457345723E9</v>
       </c>
       <c r="K145" s="25" t="n">
         <v>1.24311532E8</v>
@@ -43741,7 +43741,7 @@
         <v>1.624187265E9</v>
       </c>
       <c r="AM145" s="25" t="n">
-        <v>2.169082928E9</v>
+        <v>2.027027722E9</v>
       </c>
       <c r="AN145" s="25" t="n">
         <v>2.130130322E9</v>
@@ -44630,7 +44630,7 @@
         <v>2.144492749E9</v>
       </c>
       <c r="I153" s="25" t="n">
-        <v>8947119.0</v>
+        <v>1.51002325E8</v>
       </c>
       <c r="K153" s="25" t="n">
         <v>0.0</v>
@@ -44717,7 +44717,7 @@
         <v>0.0</v>
       </c>
       <c r="AM153" s="25" t="n">
-        <v>67014.0</v>
+        <v>1.4212222E8</v>
       </c>
       <c r="AN153" s="25" t="n">
         <v>0.0</v>
@@ -45850,7 +45850,7 @@
         <v>3.96199138809E11</v>
       </c>
       <c r="I163" s="25" t="n">
-        <v>1.61728938275E11</v>
+        <v>2.56259348825E11</v>
       </c>
       <c r="K163" s="25" t="n">
         <v>1.92311514479E11</v>
@@ -45937,7 +45937,7 @@
         <v>3.0519625218E10</v>
       </c>
       <c r="AM163" s="25" t="n">
-        <v>3.4482867493E10</v>
+        <v>1.29013278043E11</v>
       </c>
       <c r="AN163" s="25" t="n">
         <v>1.28997966389E11</v>
@@ -45972,7 +45972,7 @@
         <v>3.817973812E9</v>
       </c>
       <c r="I164" s="25" t="n">
-        <v>3.99520872E8</v>
+        <v>1.520932767E9</v>
       </c>
       <c r="K164" s="25" t="n">
         <v>0.0</v>
@@ -46059,7 +46059,7 @@
         <v>6.7780523E7</v>
       </c>
       <c r="AM164" s="25" t="n">
-        <v>1.36219183E8</v>
+        <v>1.257631078E9</v>
       </c>
       <c r="AN164" s="25" t="n">
         <v>9.1190067936E10</v>
@@ -46094,7 +46094,7 @@
         <v>9.2178777543E10</v>
       </c>
       <c r="I165" s="25" t="n">
-        <v>3.3548821916E10</v>
+        <v>7.4221935221E10</v>
       </c>
       <c r="K165" s="25" t="n">
         <v>1.6907898548E10</v>
@@ -46181,7 +46181,7 @@
         <v>5.823098925E9</v>
       </c>
       <c r="AM165" s="25" t="n">
-        <v>5.689332222E9</v>
+        <v>4.6362445527E10</v>
       </c>
       <c r="AN165" s="25" t="n">
         <v>1.0636820057E10</v>
@@ -46216,7 +46216,7 @@
         <v>1.4576302077E10</v>
       </c>
       <c r="I166" s="25" t="n">
-        <v>1.1796741242E10</v>
+        <v>2.2134618355E10</v>
       </c>
       <c r="K166" s="25" t="n">
         <v>1.623154505E9</v>
@@ -46303,7 +46303,7 @@
         <v>1.277531805E9</v>
       </c>
       <c r="AM166" s="25" t="n">
-        <v>1.216870805E9</v>
+        <v>1.1554747918E10</v>
       </c>
       <c r="AN166" s="25" t="n">
         <v>3.158228732E9</v>
@@ -46338,7 +46338,7 @@
         <v>1.97507174566E11</v>
       </c>
       <c r="I167" s="25" t="n">
-        <v>7.9802932804E10</v>
+        <v>1.14794805198E11</v>
       </c>
       <c r="K167" s="25" t="n">
         <v>1.55969965472E11</v>
@@ -46425,7 +46425,7 @@
         <v>1.4630827221E10</v>
       </c>
       <c r="AM167" s="25" t="n">
-        <v>1.6602943908E10</v>
+        <v>5.1594816302E10</v>
       </c>
       <c r="AN167" s="25" t="n">
         <v>1.4698436098E10</v>
@@ -46460,7 +46460,7 @@
         <v>8.8118910811E10</v>
       </c>
       <c r="I168" s="25" t="n">
-        <v>3.6180921441E10</v>
+        <v>4.3587057284E10</v>
       </c>
       <c r="K168" s="25" t="n">
         <v>1.7810495954E10</v>
@@ -46547,7 +46547,7 @@
         <v>8.720386744E9</v>
       </c>
       <c r="AM168" s="25" t="n">
-        <v>1.0837501375E10</v>
+        <v>1.8243637218E10</v>
       </c>
       <c r="AN168" s="25" t="n">
         <v>9.314413566E9</v>

--- a/data/VMD.xlsx
+++ b/data/VMD.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>17/12/2025</t>
+    <t>21/12/2025</t>
   </si>
   <si>
     <t>VMD</t>

--- a/data/VMD.xlsx
+++ b/data/VMD.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>21/12/2025</t>
+    <t>23/12/2025</t>
   </si>
   <si>
     <t>VMD</t>

--- a/data/VMD.xlsx
+++ b/data/VMD.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>23/12/2025</t>
+    <t>25/12/2025</t>
   </si>
   <si>
     <t>VMD</t>
